--- a/Microworld/Docs/requirements.xlsx
+++ b/Microworld/Docs/requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\Microworld\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217D4984-F357-45C4-BD62-857D52D69614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36617115-07D2-4E06-B8C7-6F9E636F7518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Users can set an income goal that must be met per rotation.</t>
+  </si>
+  <si>
+    <t>User can jump to various points on the timeline.</t>
+  </si>
+  <si>
+    <t>User can play/pause and reset the simulation.</t>
   </si>
 </sst>
 </file>
@@ -429,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -522,15 +528,23 @@
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Microworld/Docs/requirements.xlsx
+++ b/Microworld/Docs/requirements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\Microworld\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\Microworld\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36617115-07D2-4E06-B8C7-6F9E636F7518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C8A4F5-77F9-47E0-A542-186782883C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -39,18 +39,9 @@
     <t>Must</t>
   </si>
   <si>
-    <t>Felling a tree of a specific type at a specific life stage and time is a possible action.</t>
-  </si>
-  <si>
     <t>Users can set rotation length.</t>
   </si>
   <si>
-    <t>Planting a tree of a specific type at a specific time is a possible action.</t>
-  </si>
-  <si>
-    <t>Users can add/remove plant/fell actions to/from planner.</t>
-  </si>
-  <si>
     <t>Users can set a CO2 goal that the world must not be exceeded in the course of the simulation.</t>
   </si>
   <si>
@@ -61,6 +52,39 @@
   </si>
   <si>
     <t>User can play/pause and reset the simulation.</t>
+  </si>
+  <si>
+    <t>Users can add/remove forest management actions to/from the plan.</t>
+  </si>
+  <si>
+    <t>Planting a tree of a specific type at a specific time is a possible management action.</t>
+  </si>
+  <si>
+    <t>Felling a tree of a specific type at a specific life stage and time is a possible management action.</t>
+  </si>
+  <si>
+    <t>Users can save a plan.</t>
+  </si>
+  <si>
+    <t>Users can edit a management action in a plan.</t>
+  </si>
+  <si>
+    <t>Could</t>
+  </si>
+  <si>
+    <t>Users can filter the plan based on type of action.</t>
+  </si>
+  <si>
+    <t>Should</t>
+  </si>
+  <si>
+    <t>Users can have muliple plans simultaneously.</t>
+  </si>
+  <si>
+    <t>Would</t>
+  </si>
+  <si>
+    <t>Users can load a plan.</t>
   </si>
 </sst>
 </file>
@@ -433,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -463,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -474,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -485,18 +509,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" s="8" customFormat="1" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -507,7 +531,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -518,7 +542,7 @@
         <v>4.2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>3</v>
@@ -529,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
@@ -540,9 +564,64 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Microworld/Docs/requirements.xlsx
+++ b/Microworld/Docs/requirements.xlsx
@@ -8,24 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\Microworld\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C8A4F5-77F9-47E0-A542-186782883C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCD985D-65BC-439F-8768-F656B018D628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reqs" sheetId="1" r:id="rId1"/>
+    <sheet name="FRs" sheetId="2" r:id="rId2"/>
+    <sheet name="Changes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -85,13 +98,231 @@
   </si>
   <si>
     <t>Users can load a plan.</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>System shall allow the user to navigate through time using a time line.</t>
+  </si>
+  <si>
+    <t>User may skip to any year in the timeline.</t>
+  </si>
+  <si>
+    <t>User may move through time one year at a time.</t>
+  </si>
+  <si>
+    <t>System shall facilitate a play/pause button that allows the user to view the state of the forest at each point in time as an animation.</t>
+  </si>
+  <si>
+    <t>System shall display concentration of CO2 in air in a color coded manner where colors stand for expected quality of human life at that CO2 level.</t>
+  </si>
+  <si>
+    <t>System shall allow users to create, edit, delete, save and load a forest management plan.</t>
+  </si>
+  <si>
+    <t>System shall allow users to define the harvest rotation period (1 rotation = ? no. of years)</t>
+  </si>
+  <si>
+    <t>System shall provide feedback on execution status of actions (fully/partially successful, failed).</t>
+  </si>
+  <si>
+    <t>As time steps through each year, system shall try to execute every planned action.</t>
+  </si>
+  <si>
+    <t>Forest management actions and maintaining other income streams shall cost the user some coins.</t>
+  </si>
+  <si>
+    <t>System shall allow users to set target CO2 concentration and display whether this target is met (CO2 level &lt;= CO2 target) throughout the simulation.</t>
+  </si>
+  <si>
+    <t>System shall allow users to set CO2 and Income targets.</t>
+  </si>
+  <si>
+    <t>2.3.</t>
+  </si>
+  <si>
+    <t>Successful execution of fell actions result in gaining income via the timber income stream.</t>
+  </si>
+  <si>
+    <t>System shall allow user to view breakup of their income between the 3 income streams.</t>
+  </si>
+  <si>
+    <t>System shall include built-in help.</t>
+  </si>
+  <si>
+    <t>System shall have a help page with an interactive network representation of help.</t>
+  </si>
+  <si>
+    <t>System shall allow users to sign-up and log-in to persist information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System shall display land content.</t>
+  </si>
+  <si>
+    <t>System shall allow users to hover over a tree on land and view its species and age.</t>
+  </si>
+  <si>
+    <t>System shall display biodiversity score and class related to the land.</t>
+  </si>
+  <si>
+    <t>System shall allow users to edit amount of Carbon emitted due to burning of fossil fuels.</t>
+  </si>
+  <si>
+    <t>System shall enable users to make following decisions regarding each forest management action:
+* Action type = Plant / Fell.
+* Type of tree affected = Age &amp; Species.
+* No. of trees affected.
+* The year when this action shall be executed.
+* Whether this action is to repeated or not.</t>
+  </si>
+  <si>
+    <t>FUNCTIONAL REQUIREMENT</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>MUST</t>
+  </si>
+  <si>
+    <t>SHOULD</t>
+  </si>
+  <si>
+    <t>COULD</t>
+  </si>
+  <si>
+    <t>System shall allow users to earn income (coins).</t>
+  </si>
+  <si>
+    <t>Users may toggle the Non-Timber Forest Products income stream on/off.</t>
+  </si>
+  <si>
+    <t>Users may toggle the Forest Recreation income stream on/off.</t>
+  </si>
+  <si>
+    <t>System shall display in-world wealth of the user.</t>
+  </si>
+  <si>
+    <t>System shall display overall income.</t>
+  </si>
+  <si>
+    <t>System shall display per year income.</t>
+  </si>
+  <si>
+    <t>System shall display income per rotation.</t>
+  </si>
+  <si>
+    <t>WOULD</t>
+  </si>
+  <si>
+    <t>System shall display presence/absence of trees on land.</t>
+  </si>
+  <si>
+    <t>System shall present short, component relevant help upon clicking "?" buttons that shall be available related to every major component.</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>More intuitive. Allows for challenge setting.</t>
+  </si>
+  <si>
+    <t>Faster</t>
+  </si>
+  <si>
+    <t>Temperature indicator removed.</t>
+  </si>
+  <si>
+    <t>Conveys quickly through color, goodness or badness of situation.</t>
+  </si>
+  <si>
+    <t>No quadrants. Drop disaster mitigation management actions.</t>
+  </si>
+  <si>
+    <t>Simpler. Focus on key objective of carbon capture.</t>
+  </si>
+  <si>
+    <t>All code for initial version of both model and UI components were in the same file, although in classes. This was updated to have better separation of concerns and better follow the Model View Controller design pattern.</t>
+  </si>
+  <si>
+    <t>Introduced better code separation.</t>
+  </si>
+  <si>
+    <t>Allows for more nuanced forest management as is done in the real world.</t>
+  </si>
+  <si>
+    <t>Time unit changed from days to seasons to years.</t>
+  </si>
+  <si>
+    <t>Simplify. Faster.</t>
+  </si>
+  <si>
+    <t>Model = global scale. Global temperature change due to warming does not seem very drastic, but this is misleading as global changes of few degrees can have a big impact on local climate.</t>
+  </si>
+  <si>
+    <t>Soil carbon reservoir introduced.</t>
+  </si>
+  <si>
+    <t>Ocean carbon reservoir introduced, then removed.</t>
+  </si>
+  <si>
+    <t>Ecosystem services dropped as income stream.</t>
+  </si>
+  <si>
+    <t>Aids for this are temporary.</t>
+  </si>
+  <si>
+    <t>Hunting &amp; Fishing dropped as income stream.</t>
+  </si>
+  <si>
+    <t>Often results in over-exploitation and loss of biodiversity in the real world.</t>
+  </si>
+  <si>
+    <t>Timeline navigation changed from scroll to jumping to years.</t>
+  </si>
+  <si>
+    <t>Introduction of quality-of-life scale.</t>
+  </si>
+  <si>
+    <t>Income stream dependency changed to present/absent.</t>
+  </si>
+  <si>
+    <t>Simpler. Scaling by dependency does not make sense. Returns need not scale by investment.</t>
+  </si>
+  <si>
+    <t>Better reflects real carbon cycle. Stabilizes model. Allows for decay.</t>
+  </si>
+  <si>
+    <t>Idea of timber demand changed to income and co2 targets.</t>
+  </si>
+  <si>
+    <t>Fossil fuel emission setting added.</t>
+  </si>
+  <si>
+    <t>Better reflects real world. Adds another challenge level.</t>
+  </si>
+  <si>
+    <t>Action picker moved to be on the same page as planner.</t>
+  </si>
+  <si>
+    <t>More user friendly. Two fewer clicks.</t>
+  </si>
+  <si>
+    <t>Simpler. Ocean destabilizes model due to difficulty of accurately quantifying partial pressure differences between air and water given large no. of mechanisms at play in the ocean.</t>
+  </si>
+  <si>
+    <t>Add and execute actions within a rotation period in addition to at its start.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +344,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +382,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3EFF9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,11 +436,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,12 +475,56 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE3EFF9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -459,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="169" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -629,4 +971,538 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A94113-2463-45B9-8A83-B6BAAE9D134D}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.69140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.4609375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.4">
+      <c r="A3" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A4" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="13">
+        <v>2</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="13">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="13">
+        <v>4</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="13">
+        <v>5</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A17" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A18" s="14">
+        <v>5.2</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="13">
+        <v>6</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="13">
+        <v>7</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="13">
+        <v>8</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="14">
+        <v>8.1</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="13">
+        <v>9</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="14">
+        <v>9.1</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="14">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="13">
+        <v>10</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="13">
+        <v>11</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17CCB50-1247-48E8-B731-D8522961403D}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="27" style="19" customWidth="1"/>
+    <col min="2" max="2" width="46.921875" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="55.3" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="55.3" x14ac:dyDescent="0.4">
+      <c r="A3" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="55.3" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="92.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36.9" x14ac:dyDescent="0.4">
+      <c r="A6" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="110.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="55.3" x14ac:dyDescent="0.4">
+      <c r="A8" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="36.9" x14ac:dyDescent="0.4">
+      <c r="A9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="36.9" x14ac:dyDescent="0.4">
+      <c r="A10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="92.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="55.3" x14ac:dyDescent="0.4">
+      <c r="A12" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="55.3" x14ac:dyDescent="0.4">
+      <c r="A13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="55.3" x14ac:dyDescent="0.4">
+      <c r="A14" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="36.9" x14ac:dyDescent="0.4">
+      <c r="A15" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="55.3" x14ac:dyDescent="0.4">
+      <c r="A16" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>